--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Ra2d8faba16574f14"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rf200e9e50a6a4c38"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45949.857737384256</x:v>
+        <x:v>45976.824397951386</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>45979.857737384256</x:v>
+        <x:v>46006.824397951386</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rf200e9e50a6a4c38"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R192d8748d1c143f2"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45976.824397951386</x:v>
+        <x:v>45976.88579025463</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46006.824397951386</x:v>
+        <x:v>46006.88579025463</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R192d8748d1c143f2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R58f0446ede274643"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45976.88579025463</x:v>
+        <x:v>45976.89761613426</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46006.88579025463</x:v>
+        <x:v>46006.89761613426</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R58f0446ede274643"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R9fe9140e17144111"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,46 +28,46 @@
     <x:font>
       <x:b/>
       <x:sz val="24"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="14"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="14"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -80,13 +80,13 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="4472C4"/>
+        <x:fgColor rgb="FF4472C4"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="E7E6E6"/>
+        <x:fgColor rgb="FFE7E6E6"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -113,30 +113,30 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:bottom>
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -153,16 +153,16 @@
     </x:border>
     <x:border>
       <x:left style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:top>
       <x:bottom style="thin">
-        <x:color rgb="000000"/>
+        <x:color rgb="FF000000"/>
       </x:bottom>
     </x:border>
   </x:borders>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45976.89761613426</x:v>
+        <x:v>45977.45599556713</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46006.89761613426</x:v>
+        <x:v>46007.45599556713</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R9fe9140e17144111"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R3ac8f6ebccbb4230"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45977.45599556713</x:v>
+        <x:v>45977.46785405093</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46007.45599556713</x:v>
+        <x:v>46007.46785405093</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R3ac8f6ebccbb4230"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R0a9b9e18ded54301"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45977.46785405093</x:v>
+        <x:v>45977.484334409724</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46007.46785405093</x:v>
+        <x:v>46007.484334409724</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R0a9b9e18ded54301"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R84f2267e86e448f5"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45977.484334409724</x:v>
+        <x:v>45977.49643652778</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46007.484334409724</x:v>
+        <x:v>46007.49643652778</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R84f2267e86e448f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R76583781bfdb4fa0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45977.49643652778</x:v>
+        <x:v>45977.606731099535</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46007.49643652778</x:v>
+        <x:v>46007.606731099535</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R76583781bfdb4fa0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R7a07321d5667474f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45977.606731099535</x:v>
+        <x:v>45977.65872186342</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46007.606731099535</x:v>
+        <x:v>46007.65872186342</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R7a07321d5667474f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rf92d48bae80d47bf"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45977.65872186342</x:v>
+        <x:v>45977.671402974534</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46007.65872186342</x:v>
+        <x:v>46007.671402974534</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rf92d48bae80d47bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R0c4015e8f67042e0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45977.671402974534</x:v>
+        <x:v>45977.70632273148</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46007.671402974534</x:v>
+        <x:v>46007.70632273148</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R0c4015e8f67042e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Recc8cc2fee2e4e05"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45977.70632273148</x:v>
+        <x:v>45977.71624361111</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46007.70632273148</x:v>
+        <x:v>46007.71624361111</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Recc8cc2fee2e4e05"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rdc1856633c704567"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45977.71624361111</x:v>
+        <x:v>45977.73213460648</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46007.71624361111</x:v>
+        <x:v>46007.73213460648</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rdc1856633c704567"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R8cf3014f71214f63"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45977.73213460648</x:v>
+        <x:v>45977.74717099537</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46007.73213460648</x:v>
+        <x:v>46007.74717099537</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R8cf3014f71214f63"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R03d3f9aa2ad94de3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45977.74717099537</x:v>
+        <x:v>45977.766531724534</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46007.74717099537</x:v>
+        <x:v>46007.766531724534</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R03d3f9aa2ad94de3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R2308829daf444985"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45977.766531724534</x:v>
+        <x:v>45978.009563831016</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46007.766531724534</x:v>
+        <x:v>46008.009563831016</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R2308829daf444985"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rc896ae8676d14db4"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -201,7 +201,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45978.009563831016</x:v>
+        <x:v>45978.017864733796</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +209,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46008.009563831016</x:v>
+        <x:v>46008.017864733796</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rc896ae8676d14db4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Ra70841265d904b16"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -201,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45978.017864733796</x:v>
+        <x:v>45978.34666232639</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -209,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46008.017864733796</x:v>
+        <x:v>46008.34666232639</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Ra70841265d904b16"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rbdce8688ae054406"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45978.34666232639</x:v>
+        <x:v>45978.99125885417</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46008.34666232639</x:v>
+        <x:v>46008.99125885417</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rbdce8688ae054406"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R92472edde89c4cbb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45978.99125885417</x:v>
+        <x:v>45979.39608092592</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46008.99125885417</x:v>
+        <x:v>46009.39608092592</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R92472edde89c4cbb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R1610c93d921040ac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45979.39608092592</x:v>
+        <x:v>45979.410144699075</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46009.39608092592</x:v>
+        <x:v>46009.410144699075</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R1610c93d921040ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R40f9b70888f646f5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45979.410144699075</x:v>
+        <x:v>45979.97417900463</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46009.410144699075</x:v>
+        <x:v>46009.97417900463</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R40f9b70888f646f5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R068af88a3a0042fd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45979.97417900463</x:v>
+        <x:v>45980.05897668981</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46009.97417900463</x:v>
+        <x:v>46010.05897668981</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R068af88a3a0042fd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rddb3e9f09d194d14"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45980.05897668981</x:v>
+        <x:v>45980.06538150463</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46010.05897668981</x:v>
+        <x:v>46010.06538150463</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rddb3e9f09d194d14"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R3a02d950a65849b3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45980.06538150463</x:v>
+        <x:v>45980.17938947917</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46010.06538150463</x:v>
+        <x:v>46010.17938947917</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R3a02d950a65849b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rcff8ef0c82e747d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45980.17938947917</x:v>
+        <x:v>45980.23988972222</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46010.17938947917</x:v>
+        <x:v>46010.23988972222</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rcff8ef0c82e747d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R9657d7fd117d4232"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45980.23988972222</x:v>
+        <x:v>45980.25924259259</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46010.23988972222</x:v>
+        <x:v>46010.25924259259</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R9657d7fd117d4232"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R2724e72f83344689"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45980.25924259259</x:v>
+        <x:v>45980.40101032407</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46010.25924259259</x:v>
+        <x:v>46010.40101032407</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R2724e72f83344689"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R99d642f03e7b44cb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45980.40101032407</x:v>
+        <x:v>45980.43830778935</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46010.40101032407</x:v>
+        <x:v>46010.43830778935</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R99d642f03e7b44cb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R1c2c566970d1413c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45980.43830778935</x:v>
+        <x:v>45980.98040940972</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46010.43830778935</x:v>
+        <x:v>46010.98040940972</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R1c2c566970d1413c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R3176c7f0962444b5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45980.98040940972</x:v>
+        <x:v>45980.98859829861</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46010.98040940972</x:v>
+        <x:v>46010.98859829861</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R3176c7f0962444b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R9fc32a2f2688467b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45980.98859829861</x:v>
+        <x:v>45981.127828703706</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46010.98859829861</x:v>
+        <x:v>46011.127828703706</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R9fc32a2f2688467b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R84bf9e0edf344b62"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45981.127828703706</x:v>
+        <x:v>45981.228250844906</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46011.127828703706</x:v>
+        <x:v>46011.228250844906</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R84bf9e0edf344b62"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rbbacf3285ec244f1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45981.228250844906</x:v>
+        <x:v>45981.70168965278</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46011.228250844906</x:v>
+        <x:v>46011.70168965278</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rbbacf3285ec244f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rffef566f2a05445a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45981.70168965278</x:v>
+        <x:v>45993.23566668981</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46011.70168965278</x:v>
+        <x:v>46023.23566668981</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rffef566f2a05445a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rd70bcc11a6744c0e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45993.23566668981</x:v>
+        <x:v>45993.24879229167</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46023.23566668981</x:v>
+        <x:v>46023.24879229167</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rd70bcc11a6744c0e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rfce319d26b334174"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45993.24879229167</x:v>
+        <x:v>45993.4257390162</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46023.24879229167</x:v>
+        <x:v>46023.4257390162</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rfce319d26b334174"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rfd49dc1661f744ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>45993.4257390162</x:v>
+        <x:v>46003.084086284725</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46023.4257390162</x:v>
+        <x:v>46033.084086284725</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rfd49dc1661f744ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R5a2d4675aa9941de"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46003.084086284725</x:v>
+        <x:v>46026.216364444444</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46033.084086284725</x:v>
+        <x:v>46056.216364444444</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R5a2d4675aa9941de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R28de77722cd342a1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46026.216364444444</x:v>
+        <x:v>46026.25985730324</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46056.216364444444</x:v>
+        <x:v>46056.25985730324</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R28de77722cd342a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rd7406ddc09e244f4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46026.25985730324</x:v>
+        <x:v>46034.32543596065</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46056.25985730324</x:v>
+        <x:v>46064.32543596065</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rd7406ddc09e244f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Ra6f04932877e4d53"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46034.32543596065</x:v>
+        <x:v>46036.3016612963</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46064.32543596065</x:v>
+        <x:v>46066.3016612963</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Ra6f04932877e4d53"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rd38948c5ec164e25"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46036.3016612963</x:v>
+        <x:v>46036.6720137963</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46066.3016612963</x:v>
+        <x:v>46066.6720137963</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Rd38948c5ec164e25"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R20cb865490d54f58"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46036.6720137963</x:v>
+        <x:v>46036.717039166666</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46066.6720137963</x:v>
+        <x:v>46066.717039166666</x:v>
       </x:c>
     </x:row>
     <x:row r="7">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/19_InvoiceGenerator.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="R20cb865490d54f58"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" r:id="Ra00ae923560c4a6c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -202,7 +202,7 @@
         <x:v>Date:</x:v>
       </x:c>
       <x:c r="B4" s="3" t="n">
-        <x:v>46036.717039166666</x:v>
+        <x:v>46036.83244824074</x:v>
       </x:c>
     </x:row>
     <x:row r="5">
@@ -210,7 +210,7 @@
         <x:v>Due Date:</x:v>
       </x:c>
       <x:c r="B5" s="3" t="n">
-        <x:v>46066.717039166666</x:v>
+        <x:v>46066.83244824074</x:v>
       </x:c>
     </x:row>
     <x:row r="7">
